--- a/src/assets/conceptos.xlsx
+++ b/src/assets/conceptos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesariux23\python\TIMBRADO BASE 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cencarnacion\develop\timbrado\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -144,34 +144,13 @@
     <t>NoMovimiento</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Importe</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gravado</t>
-    </r>
+    <t>ImporteGravado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -242,7 +221,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +325,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -373,6 +351,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -777,7 +758,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -837,7 +818,7 @@
       <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="7" t="s">

--- a/src/assets/conceptos.xlsx
+++ b/src/assets/conceptos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cencarnacion\develop\timbrado\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E711A2-23B5-4439-B831-014F36DBC577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20730" windowHeight="11640" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONCEPTOS" sheetId="1" r:id="rId1"/>
@@ -144,13 +145,34 @@
     <t>NoMovimiento</t>
   </si>
   <si>
-    <t>ImporteGravado</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Importe</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gravado</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -221,6 +243,7 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -325,7 +348,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -347,13 +370,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -417,7 +434,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -753,12 +770,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -767,7 +784,7 @@
     <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="9" customWidth="1"/>
     <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11" style="1"/>
@@ -789,7 +806,7 @@
       <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -815,10 +832,10 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -837,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
